--- a/方大炭素(600516)_利润表.xlsx
+++ b/方大炭素(600516)_利润表.xlsx
@@ -1001,11 +1001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101877632"/>
-        <c:axId val="101879168"/>
+        <c:axId val="67819008"/>
+        <c:axId val="67820544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101877632"/>
+        <c:axId val="67819008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,14 +1015,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101879168"/>
+        <c:crossAx val="67820544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101879168"/>
+        <c:axId val="67820544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101877632"/>
+        <c:crossAx val="67819008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1335,11 +1335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101895168"/>
-        <c:axId val="103875328"/>
+        <c:axId val="68643456"/>
+        <c:axId val="68665728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101895168"/>
+        <c:axId val="68643456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,14 +1349,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103875328"/>
+        <c:crossAx val="68665728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103875328"/>
+        <c:axId val="68665728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101895168"/>
+        <c:crossAx val="68643456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,11 +1669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103895424"/>
-        <c:axId val="103896960"/>
+        <c:axId val="68820992"/>
+        <c:axId val="68822528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103895424"/>
+        <c:axId val="68820992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,14 +1683,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103896960"/>
+        <c:crossAx val="68822528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103896960"/>
+        <c:axId val="68822528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103895424"/>
+        <c:crossAx val="68820992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1733,7 +1733,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1766,7 +1765,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1800,7 +1798,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1886,11 +1883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138461184"/>
-        <c:axId val="138462720"/>
+        <c:axId val="68898176"/>
+        <c:axId val="68912256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138461184"/>
+        <c:axId val="68898176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,12 +1897,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138462720"/>
+        <c:crossAx val="68912256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138462720"/>
+        <c:axId val="68912256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138461184"/>
+        <c:crossAx val="68898176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2052,11 +2049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103153024"/>
-        <c:axId val="103151488"/>
+        <c:axId val="68030464"/>
+        <c:axId val="68032000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103153024"/>
+        <c:axId val="68030464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,12 +2063,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103151488"/>
+        <c:crossAx val="68032000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103151488"/>
+        <c:axId val="68032000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103153024"/>
+        <c:crossAx val="68030464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2221,11 +2218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="31828224"/>
-        <c:axId val="31826688"/>
+        <c:axId val="68057728"/>
+        <c:axId val="68067712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31828224"/>
+        <c:axId val="68057728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,12 +2232,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31826688"/>
+        <c:crossAx val="68067712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31826688"/>
+        <c:axId val="68067712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31828224"/>
+        <c:crossAx val="68057728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2386,11 +2383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241373568"/>
-        <c:axId val="232315520"/>
+        <c:axId val="68078208"/>
+        <c:axId val="68104576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241373568"/>
+        <c:axId val="68078208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,12 +2397,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232315520"/>
+        <c:crossAx val="68104576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232315520"/>
+        <c:axId val="68104576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241373568"/>
+        <c:crossAx val="68078208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2471,7 +2468,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2551,11 +2547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138747264"/>
-        <c:axId val="138745344"/>
+        <c:axId val="69055232"/>
+        <c:axId val="69056768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138747264"/>
+        <c:axId val="69055232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,12 +2561,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138745344"/>
+        <c:crossAx val="69056768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138745344"/>
+        <c:axId val="69056768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,14 +2577,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138747264"/>
+        <c:crossAx val="69055232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3168,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20555,39 +20550,39 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="6">
-        <f>G13/G6</f>
+        <f t="shared" ref="G16:O16" si="5">G13/G6</f>
         <v>0.57846136104461443</v>
       </c>
       <c r="H16" s="6">
-        <f>H13/H6</f>
+        <f t="shared" si="5"/>
         <v>3.5465919370166403E-2</v>
       </c>
       <c r="I16" s="6">
-        <f>I13/I6</f>
+        <f t="shared" si="5"/>
         <v>1.9517836596071557E-2</v>
       </c>
       <c r="J16" s="6">
-        <f>J13/J6</f>
+        <f t="shared" si="5"/>
         <v>0.10174552151545088</v>
       </c>
       <c r="K16" s="6">
-        <f>K13/K6</f>
+        <f t="shared" si="5"/>
         <v>0.10064382319934263</v>
       </c>
       <c r="L16" s="6">
-        <f>L13/L6</f>
+        <f t="shared" si="5"/>
         <v>0.15579244373983406</v>
       </c>
       <c r="M16" s="6">
-        <f>M13/M6</f>
+        <f t="shared" si="5"/>
         <v>0.19286790266377715</v>
       </c>
       <c r="N16" s="6">
-        <f>N13/N6</f>
+        <f t="shared" si="5"/>
         <v>0.17627968945561104</v>
       </c>
       <c r="O16" s="6">
-        <f>O13/O6</f>
+        <f t="shared" si="5"/>
         <v>6.9191965812349541E-3</v>
       </c>
     </row>
@@ -20665,35 +20660,35 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="6">
-        <f>(G5-H5)/H5</f>
+        <f t="shared" ref="G19:N19" si="6">(G5-H5)/H5</f>
         <v>2.4862044224639486</v>
       </c>
       <c r="H19" s="6">
-        <f>(H5-I5)/I5</f>
+        <f t="shared" si="6"/>
         <v>2.7842909123128021E-2</v>
       </c>
       <c r="I19" s="6">
-        <f>(I5-J5)/J5</f>
+        <f t="shared" si="6"/>
         <v>-0.3243258049425542</v>
       </c>
       <c r="J19" s="6">
-        <f>(J5-K5)/K5</f>
+        <f t="shared" si="6"/>
         <v>2.2398341308058029E-2</v>
       </c>
       <c r="K19" s="6">
-        <f>(K5-L5)/L5</f>
+        <f t="shared" si="6"/>
         <v>-0.1461148869183673</v>
       </c>
       <c r="L19" s="6">
-        <f>(L5-M5)/M5</f>
+        <f t="shared" si="6"/>
         <v>-0.12711745939287847</v>
       </c>
       <c r="M19" s="6">
-        <f>(M5-N5)/N5</f>
+        <f t="shared" si="6"/>
         <v>0.4071399950315166</v>
       </c>
       <c r="N19" s="6">
-        <f>(N5-O5)/O5</f>
+        <f t="shared" si="6"/>
         <v>0.51585928767378864</v>
       </c>
     </row>
@@ -20711,31 +20706,31 @@
         <v>15.310344446652373</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20:N20" si="5">(H16-I16)/I16</f>
+        <f t="shared" ref="H20:N20" si="7">(H16-I16)/I16</f>
         <v>0.81710299682008758</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.80817006679642778</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0946507009438059E-2</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.35398777512333646</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.19223239539539153</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.410167024569889E-2</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24.476901456115044</v>
       </c>
     </row>
@@ -20749,35 +20744,35 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="6">
-        <f>(G8-H8)/H8</f>
+        <f t="shared" ref="G21:N21" si="8">(G8-H8)/H8</f>
         <v>0.43472594730673186</v>
       </c>
       <c r="H21" s="6">
-        <f>(H8-I8)/I8</f>
+        <f t="shared" si="8"/>
         <v>1.1242508189320851E-2</v>
       </c>
       <c r="I21" s="6">
-        <f>(I8-J8)/J8</f>
+        <f t="shared" si="8"/>
         <v>-0.25162202390781507</v>
       </c>
       <c r="J21" s="6">
-        <f>(J8-K8)/K8</f>
+        <f t="shared" si="8"/>
         <v>6.1946341267905915E-2</v>
       </c>
       <c r="K21" s="6">
-        <f>(K8-L8)/L8</f>
+        <f t="shared" si="8"/>
         <v>-0.10433394976117924</v>
       </c>
       <c r="L21" s="6">
-        <f>(L8-M8)/M8</f>
+        <f t="shared" si="8"/>
         <v>-4.120078686328759E-2</v>
       </c>
       <c r="M21" s="6">
-        <f>(M8-N8)/N8</f>
+        <f t="shared" si="8"/>
         <v>0.3125033210939917</v>
       </c>
       <c r="N21" s="6">
-        <f>(N8-O8)/O8</f>
+        <f t="shared" si="8"/>
         <v>0.27928099227269731</v>
       </c>
     </row>
@@ -20795,31 +20790,31 @@
         <v>0.17767176781517668</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ref="H22:N22" si="6">H14/H13</f>
+        <f t="shared" ref="H22:N22" si="9">H14/H13</f>
         <v>0.64663489139539487</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.71417372446037586</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.2490596146818144</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.31111511738613906</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.232915337229151</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.27113685724935693</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.25614144239104031</v>
       </c>
     </row>
@@ -21032,8 +21027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21041,7 +21036,7 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.75" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21745,39 +21740,39 @@
         <v>0.57846136104461443</v>
       </c>
       <c r="G17" s="6">
-        <f>G14/G5</f>
+        <f t="shared" ref="G17:O17" si="8">G14/G5</f>
         <v>0.57846136104461443</v>
       </c>
       <c r="H17" s="6">
-        <f>H14/H5</f>
+        <f t="shared" si="8"/>
         <v>3.5465919370166403E-2</v>
       </c>
       <c r="I17" s="6">
-        <f>I14/I5</f>
+        <f t="shared" si="8"/>
         <v>1.9517836596071557E-2</v>
       </c>
       <c r="J17" s="6">
-        <f>J14/J5</f>
+        <f t="shared" si="8"/>
         <v>0.10174552151545088</v>
       </c>
       <c r="K17" s="6">
-        <f>K14/K5</f>
+        <f t="shared" si="8"/>
         <v>0.10064382319934263</v>
       </c>
       <c r="L17" s="6">
-        <f>L14/L5</f>
+        <f t="shared" si="8"/>
         <v>0.15579244373983406</v>
       </c>
       <c r="M17" s="6">
-        <f>M14/M5</f>
+        <f t="shared" si="8"/>
         <v>0.19286790266377715</v>
       </c>
       <c r="N17" s="6">
-        <f>N14/N5</f>
+        <f t="shared" si="8"/>
         <v>0.17627968945561104</v>
       </c>
       <c r="O17" s="6">
-        <f>O14/O5</f>
+        <f t="shared" si="8"/>
         <v>6.9191965812349541E-3</v>
       </c>
     </row>
@@ -21786,35 +21781,35 @@
         <v>36</v>
       </c>
       <c r="G18" s="6">
-        <f>(G4-H4)/H4</f>
+        <f t="shared" ref="G18:N18" si="9">(G4-H4)/H4</f>
         <v>2.4862044224639486</v>
       </c>
       <c r="H18" s="6">
-        <f>(H4-I4)/I4</f>
+        <f t="shared" si="9"/>
         <v>2.7842909123128021E-2</v>
       </c>
       <c r="I18" s="6">
-        <f>(I4-J4)/J4</f>
+        <f t="shared" si="9"/>
         <v>-0.3243258049425542</v>
       </c>
       <c r="J18" s="6">
-        <f>(J4-K4)/K4</f>
+        <f t="shared" si="9"/>
         <v>2.2398341308058029E-2</v>
       </c>
       <c r="K18" s="6">
-        <f>(K4-L4)/L4</f>
+        <f t="shared" si="9"/>
         <v>-0.1461148869183673</v>
       </c>
       <c r="L18" s="6">
-        <f>(L4-M4)/M4</f>
+        <f t="shared" si="9"/>
         <v>-0.12711745939287847</v>
       </c>
       <c r="M18" s="6">
-        <f>(M4-N4)/N4</f>
+        <f t="shared" si="9"/>
         <v>0.4071399950315166</v>
       </c>
       <c r="N18" s="6">
-        <f>(N4-O4)/O4</f>
+        <f t="shared" si="9"/>
         <v>0.51585928767378864</v>
       </c>
     </row>
@@ -21827,31 +21822,31 @@
         <v>15.310344446652373</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" ref="H19:N19" si="8">(H17-I17)/I17</f>
+        <f t="shared" ref="H19:N19" si="10">(H17-I17)/I17</f>
         <v>0.81710299682008758</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.80817006679642778</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0946507009438059E-2</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.35398777512333646</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.19223239539539153</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.410167024569889E-2</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24.476901456115044</v>
       </c>
     </row>
@@ -21875,35 +21870,35 @@
         <v>0.25</v>
       </c>
       <c r="G20" s="6">
-        <f>(G7-H7)/H7</f>
+        <f t="shared" ref="G20:N20" si="11">(G7-H7)/H7</f>
         <v>0.43472594730673186</v>
       </c>
       <c r="H20" s="6">
-        <f>(H7-I7)/I7</f>
+        <f t="shared" si="11"/>
         <v>1.1242508189320851E-2</v>
       </c>
       <c r="I20" s="6">
-        <f>(I7-J7)/J7</f>
+        <f t="shared" si="11"/>
         <v>-0.25162202390781507</v>
       </c>
       <c r="J20" s="6">
-        <f>(J7-K7)/K7</f>
+        <f t="shared" si="11"/>
         <v>6.1946341267905915E-2</v>
       </c>
       <c r="K20" s="6">
-        <f>(K7-L7)/L7</f>
+        <f t="shared" si="11"/>
         <v>-0.10433394976117924</v>
       </c>
       <c r="L20" s="6">
-        <f>(L7-M7)/M7</f>
+        <f t="shared" si="11"/>
         <v>-4.120078686328759E-2</v>
       </c>
       <c r="M20" s="6">
-        <f>(M7-N7)/N7</f>
+        <f t="shared" si="11"/>
         <v>0.3125033210939917</v>
       </c>
       <c r="N20" s="6">
-        <f>(N7-O7)/O7</f>
+        <f t="shared" si="11"/>
         <v>0.27928099227269731</v>
       </c>
     </row>
@@ -21916,31 +21911,31 @@
         <v>0.17767176781517668</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:N21" si="9">H15/H14</f>
+        <f t="shared" ref="H21:N21" si="12">H15/H14</f>
         <v>0.64663489139539487</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.71417372446037586</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.2490596146818144</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.31111511738613906</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.232915337229151</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.27113685724935693</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.25614144239104031</v>
       </c>
       <c r="O21" s="1"/>
@@ -21954,19 +21949,19 @@
         <v>97.096157926706468</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:F22" si="10">37.855*LN(C2)</f>
+        <f t="shared" ref="C22:F22" si="13">37.855*LN(C2)</f>
         <v>94.066141227724742</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>90.772325551782316</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>87.164358695289607</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>83.175936375062591</v>
       </c>
       <c r="G22" s="1">
@@ -22004,19 +21999,19 @@
         <v>1685.2535255823718</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:F23" si="11">695.55*LN(C2)-98.797</f>
+        <f t="shared" ref="C23:F23" si="14">695.55*LN(C2)-98.797</f>
         <v>1629.5798202600436</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1569.0590569949065</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1502.7660614320084</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1429.4825547662074</v>
       </c>
       <c r="G23">
@@ -22052,19 +22047,19 @@
         <v>87</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" ref="B24:E24" si="12">8.5426*B2+11.234</f>
+        <f t="shared" ref="B24:E24" si="15">8.5426*B2+11.234</f>
         <v>122.28779999999999</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>113.7452</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>105.2026</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>96.66</v>
       </c>
       <c r="F24">
@@ -22108,19 +22103,19 @@
         <v>1559.8622530495713</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:F25" si="13">C16+C24-C22-C23</f>
+        <f t="shared" ref="C25:F25" si="16">C16+C24-C22-C23</f>
         <v>1484.3835164434749</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1414.1302539457299</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1350.099869485588</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1293.6057544910343</v>
       </c>
     </row>
@@ -22173,19 +22168,19 @@
         <v>77993.11265247855</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" ref="C28:F28" si="14">C25/(C27-C26)</f>
+        <f t="shared" ref="C28:F28" si="17">C25/(C27-C26)</f>
         <v>74219.17582217374</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>70706.512697286482</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>67504.993474279385</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>64680.287724551701</v>
       </c>
     </row>
@@ -22218,19 +22213,19 @@
         <v>1719.16</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" ref="C30:F30" si="15">C29/1000000</f>
+        <f t="shared" ref="C30:F30" si="18">C29/1000000</f>
         <v>1719.16</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1719.16</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1719.16</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1719.16</v>
       </c>
     </row>
@@ -22243,19 +22238,19 @@
         <v>45.366988908815088</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" ref="C31:F31" si="16">C28/C30</f>
+        <f t="shared" ref="C31:F31" si="19">C28/C30</f>
         <v>43.171767503998311</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>41.128523637873428</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>39.266265777635233</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>37.62319256180443</v>
       </c>
     </row>
@@ -22283,7 +22278,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/方大炭素(600516)_利润表.xlsx
+++ b/方大炭素(600516)_利润表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penpen926/workspace/finance/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18840" windowHeight="7125" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,15 @@
     <definedName name="方大炭素_600516__利润表" localSheetId="0">'raw data'!$A$1:$BP$33</definedName>
     <definedName name="方大炭素_600516__利润表" localSheetId="4">'剧本1 行业发适中'!$A$3:$O$16</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -638,10 +651,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,6 +671,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -685,7 +703,7 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -696,14 +714,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,7 +736,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -762,112 +780,112 @@
                 <c:formatCode>yyyy"年"m"月"d"日";@</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43100</c:v>
+                  <c:v>43100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43008</c:v>
+                  <c:v>43008.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42916</c:v>
+                  <c:v>42916.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42825</c:v>
+                  <c:v>42825.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42735</c:v>
+                  <c:v>42735.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42643</c:v>
+                  <c:v>42643.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42551</c:v>
+                  <c:v>42551.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42460</c:v>
+                  <c:v>42460.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42369</c:v>
+                  <c:v>42369.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42277</c:v>
+                  <c:v>42277.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42185</c:v>
+                  <c:v>42185.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42094</c:v>
+                  <c:v>42094.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42004</c:v>
+                  <c:v>42004.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41912</c:v>
+                  <c:v>41912.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41820</c:v>
+                  <c:v>41820.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41729</c:v>
+                  <c:v>41729.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41639</c:v>
+                  <c:v>41639.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41547</c:v>
+                  <c:v>41547.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41455</c:v>
+                  <c:v>41455.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41364</c:v>
+                  <c:v>41364.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41274</c:v>
+                  <c:v>41274.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41182</c:v>
+                  <c:v>41182.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41090</c:v>
+                  <c:v>41090.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40999</c:v>
+                  <c:v>40999.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40908</c:v>
+                  <c:v>40908.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40816</c:v>
+                  <c:v>40816.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40724</c:v>
+                  <c:v>40724.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40633</c:v>
+                  <c:v>40633.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40543</c:v>
+                  <c:v>40543.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40451</c:v>
+                  <c:v>40451.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40359</c:v>
+                  <c:v>40359.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40268</c:v>
+                  <c:v>40268.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40178</c:v>
+                  <c:v>40178.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40086</c:v>
+                  <c:v>40086.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39994</c:v>
+                  <c:v>39994.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39903</c:v>
+                  <c:v>39903.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,22 +897,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3121.1993459000005</c:v>
+                  <c:v>3121.1993459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3415.8443726699998</c:v>
+                  <c:v>3415.84437267</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1120.68901065</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>692.74337553999999</c:v>
+                  <c:v>692.74337554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>686.57649845000037</c:v>
+                  <c:v>686.5764984500003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>637.14829609999992</c:v>
+                  <c:v>637.1482960999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>598.23864497</c:v>
@@ -903,85 +921,85 @@
                   <c:v>473.32814205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>533.51552191999986</c:v>
+                  <c:v>533.5155219199999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>605.49781106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>557.43508355999995</c:v>
+                  <c:v>557.43508356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>633.95787445000008</c:v>
+                  <c:v>633.9578744500001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>806.93404111000018</c:v>
+                  <c:v>806.9340411100002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>854.56952676999981</c:v>
+                  <c:v>854.5695267699998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>883.31733730000019</c:v>
+                  <c:v>883.3173373000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>904.18796335000002</c:v>
+                  <c:v>904.18796335</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>725.47658113000034</c:v>
+                  <c:v>725.4765811300003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>753.44749967999996</c:v>
+                  <c:v>753.44749968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>945.46635909999986</c:v>
+                  <c:v>945.4663590999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>949.05876201000001</c:v>
+                  <c:v>949.05876201</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>992.09683826999981</c:v>
+                  <c:v>992.0968382699998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>946.29359808000004</c:v>
+                  <c:v>946.29359808</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1168.8817116199998</c:v>
+                  <c:v>1168.88171162</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>843.43404217</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1161.7429199100002</c:v>
+                  <c:v>1161.74291991</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1278.1558289</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1183.2357103899999</c:v>
+                  <c:v>1183.23571039</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>902.91114986000002</c:v>
+                  <c:v>902.91114986</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>965.32198461000053</c:v>
+                  <c:v>965.3219846100005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>889.69457170999954</c:v>
+                  <c:v>889.6945717099995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>780.10151140000005</c:v>
+                  <c:v>780.1015114</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>581.36758760999999</c:v>
+                  <c:v>581.36758761</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>588.11519217999989</c:v>
+                  <c:v>588.1151921799999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>518.69781924000006</c:v>
+                  <c:v>518.69781924</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>578.02771315000007</c:v>
+                  <c:v>578.0277131500001</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>437.04861007</c:v>
@@ -999,13 +1017,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67819008"/>
-        <c:axId val="67820544"/>
+        <c:axId val="1560734736"/>
+        <c:axId val="1594687696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67819008"/>
+        <c:axId val="1560734736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,14 +1032,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67820544"/>
+        <c:crossAx val="1594687696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67820544"/>
+        <c:axId val="1594687696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67819008"/>
+        <c:crossAx val="1560734736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1052,7 +1069,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1096,112 +1113,112 @@
                 <c:formatCode>yyyy"年"m"月"d"日";@</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43100</c:v>
+                  <c:v>43100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43008</c:v>
+                  <c:v>43008.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42916</c:v>
+                  <c:v>42916.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42825</c:v>
+                  <c:v>42825.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42735</c:v>
+                  <c:v>42735.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42643</c:v>
+                  <c:v>42643.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42551</c:v>
+                  <c:v>42551.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42460</c:v>
+                  <c:v>42460.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42369</c:v>
+                  <c:v>42369.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42277</c:v>
+                  <c:v>42277.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42185</c:v>
+                  <c:v>42185.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42094</c:v>
+                  <c:v>42094.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42004</c:v>
+                  <c:v>42004.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41912</c:v>
+                  <c:v>41912.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41820</c:v>
+                  <c:v>41820.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41729</c:v>
+                  <c:v>41729.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41639</c:v>
+                  <c:v>41639.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41547</c:v>
+                  <c:v>41547.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41455</c:v>
+                  <c:v>41455.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41364</c:v>
+                  <c:v>41364.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41274</c:v>
+                  <c:v>41274.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41182</c:v>
+                  <c:v>41182.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41090</c:v>
+                  <c:v>41090.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40999</c:v>
+                  <c:v>40999.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40908</c:v>
+                  <c:v>40908.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40816</c:v>
+                  <c:v>40816.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40724</c:v>
+                  <c:v>40724.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40633</c:v>
+                  <c:v>40633.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40543</c:v>
+                  <c:v>40543.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40451</c:v>
+                  <c:v>40451.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40359</c:v>
+                  <c:v>40359.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40268</c:v>
+                  <c:v>40268.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40178</c:v>
+                  <c:v>40178.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40086</c:v>
+                  <c:v>40086.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39994</c:v>
+                  <c:v>39994.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39903</c:v>
+                  <c:v>39903.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,82 +1230,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>2189.9092809200006</c:v>
+                  <c:v>2189.909280920001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2113.1595119499998</c:v>
+                  <c:v>2113.15951195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>433.45099966999993</c:v>
+                  <c:v>433.4509996699999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.943573349999994</c:v>
+                  <c:v>90.94357335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.6663407800000059</c:v>
+                  <c:v>-3.666340780000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.949707629999999</c:v>
+                  <c:v>56.94970763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6771244599999999</c:v>
+                  <c:v>4.67712446</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.1666500200000001</c:v>
+                  <c:v>-3.16665002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-47.900574649999996</c:v>
+                  <c:v>-47.90057465</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-46.302160300000011</c:v>
+                  <c:v>-46.30216030000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.396845360000015</c:v>
+                  <c:v>55.39684536000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64.598388569999997</c:v>
+                  <c:v>64.59838857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-43.223991530000035</c:v>
+                  <c:v>-43.22399153000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.020927739999991</c:v>
+                  <c:v>87.02092773999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>113.14767108000004</c:v>
+                  <c:v>113.14767108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>154.20831090999999</c:v>
+                  <c:v>154.20831091</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.461036690000014</c:v>
+                  <c:v>22.46103669000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.559101349999935</c:v>
+                  <c:v>43.55910134999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>144.51432531000006</c:v>
+                  <c:v>144.5143253100001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.49961640999999</c:v>
+                  <c:v>128.49961641</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>104.95082224999999</c:v>
+                  <c:v>104.95082225</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>118.64962409999993</c:v>
+                  <c:v>118.6496240999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>238.13719700000001</c:v>
+                  <c:v>238.137197</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87.62626868000001</c:v>
+                  <c:v>87.62626868</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>197.44682219000003</c:v>
+                  <c:v>197.44682219</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>262.90779572999998</c:v>
+                  <c:v>262.90779573</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>291.34390478</c:v>
@@ -1297,28 +1314,28 @@
                   <c:v>216.00260297</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>167.53281565000003</c:v>
+                  <c:v>167.53281565</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>182.46515649999998</c:v>
+                  <c:v>182.4651565</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>120.31845892000001</c:v>
+                  <c:v>120.31845892</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.650952909999994</c:v>
+                  <c:v>44.65095291</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-73.558473910000004</c:v>
+                  <c:v>-73.55847391</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7.6828235600000028</c:v>
+                  <c:v>-7.682823560000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>52.353322670000004</c:v>
+                  <c:v>52.35332267</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.540130659999996</c:v>
+                  <c:v>37.54013066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,13 +1350,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68643456"/>
-        <c:axId val="68665728"/>
+        <c:axId val="1597103456"/>
+        <c:axId val="1594678416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68643456"/>
+        <c:axId val="1597103456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,14 +1365,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68665728"/>
+        <c:crossAx val="1594678416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68665728"/>
+        <c:axId val="1594678416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68643456"/>
+        <c:crossAx val="1597103456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1386,7 +1402,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1430,112 +1446,112 @@
                 <c:formatCode>yyyy"年"m"月"d"日";@</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43100</c:v>
+                  <c:v>43100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43008</c:v>
+                  <c:v>43008.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42916</c:v>
+                  <c:v>42916.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42825</c:v>
+                  <c:v>42825.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42735</c:v>
+                  <c:v>42735.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42643</c:v>
+                  <c:v>42643.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42551</c:v>
+                  <c:v>42551.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42460</c:v>
+                  <c:v>42460.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42369</c:v>
+                  <c:v>42369.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42277</c:v>
+                  <c:v>42277.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42185</c:v>
+                  <c:v>42185.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42094</c:v>
+                  <c:v>42094.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42004</c:v>
+                  <c:v>42004.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41912</c:v>
+                  <c:v>41912.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41820</c:v>
+                  <c:v>41820.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41729</c:v>
+                  <c:v>41729.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41639</c:v>
+                  <c:v>41639.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41547</c:v>
+                  <c:v>41547.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41455</c:v>
+                  <c:v>41455.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41364</c:v>
+                  <c:v>41364.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41274</c:v>
+                  <c:v>41274.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41182</c:v>
+                  <c:v>41182.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41090</c:v>
+                  <c:v>41090.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40999</c:v>
+                  <c:v>40999.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40908</c:v>
+                  <c:v>40908.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40816</c:v>
+                  <c:v>40816.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40724</c:v>
+                  <c:v>40724.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40633</c:v>
+                  <c:v>40633.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40543</c:v>
+                  <c:v>40543.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40451</c:v>
+                  <c:v>40451.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40359</c:v>
+                  <c:v>40359.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40268</c:v>
+                  <c:v>40268.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40178</c:v>
+                  <c:v>40178.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40086</c:v>
+                  <c:v>40086.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39994</c:v>
+                  <c:v>39994.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39903</c:v>
+                  <c:v>39903.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,22 +1563,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>1755.7186206299998</c:v>
+                  <c:v>1755.71862063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1768.1752947700002</c:v>
+                  <c:v>1768.17529477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375.81532490000001</c:v>
+                  <c:v>375.8153249</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.48789090999999</c:v>
+                  <c:v>72.48789091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-31.294968099999998</c:v>
+                  <c:v>-31.2949681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.459628219999999</c:v>
+                  <c:v>58.45962822</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-1.45368392</c:v>
@@ -1571,88 +1587,88 @@
                   <c:v>4.30782021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3821203700000018</c:v>
+                  <c:v>6.382120370000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-17.868437960000001</c:v>
+                  <c:v>-17.86843796</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.427615280000005</c:v>
+                  <c:v>38.42761528</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-13.940635550000001</c:v>
+                  <c:v>-13.94063555</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-71.31218788000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.384839839999984</c:v>
+                  <c:v>75.38483983999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>131.86484223000002</c:v>
+                  <c:v>131.86484223</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>127.58341148999999</c:v>
+                  <c:v>127.58341149</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-18.901552920000029</c:v>
+                  <c:v>-18.90155292000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.50288531999999</c:v>
+                  <c:v>35.50288532</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>106.91735508000002</c:v>
+                  <c:v>106.91735508</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>110.36932069</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>85.094196080000074</c:v>
+                  <c:v>85.09419608000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>123.01133182999996</c:v>
+                  <c:v>123.01133183</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>193.90463808999999</c:v>
+                  <c:v>193.90463809</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70.122904919999996</c:v>
+                  <c:v>70.12290492</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>91.37830380999992</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>143.11704278000008</c:v>
+                  <c:v>143.1170427800001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>225.25540926999997</c:v>
+                  <c:v>225.25540927</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>176.49496306999998</c:v>
+                  <c:v>176.49496307</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>132.39585828000003</c:v>
+                  <c:v>132.39585828</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>144.52169996000001</c:v>
+                  <c:v>144.52169996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>103.26055996999999</c:v>
+                  <c:v>103.26055997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41.590496590000001</c:v>
+                  <c:v>41.59049659</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-148.41847136000001</c:v>
+                  <c:v>-148.41847136</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5027352200000053</c:v>
+                  <c:v>1.502735220000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>93.539425609999995</c:v>
+                  <c:v>93.53942561</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>33.898321680000002</c:v>
+                  <c:v>33.89832168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,13 +1683,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68820992"/>
-        <c:axId val="68822528"/>
+        <c:axId val="1594082352"/>
+        <c:axId val="1597084496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68820992"/>
+        <c:axId val="1594082352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,14 +1698,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68822528"/>
+        <c:crossAx val="1597084496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68822528"/>
+        <c:axId val="1597084496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68820992"/>
+        <c:crossAx val="1594082352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1721,7 +1736,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1808,31 +1823,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,28 +1859,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8350.4761047600005</c:v>
+                  <c:v>8350.47610476</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2395.2915815700003</c:v>
+                  <c:v>2395.29158157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2330.4062909899999</c:v>
+                  <c:v>2330.40629099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3449.0088685300002</c:v>
+                  <c:v>3449.00886853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3373.4492019200002</c:v>
+                  <c:v>3373.44920192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3950.7061901399998</c:v>
+                  <c:v>3950.70619014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4526.0456090600001</c:v>
+                  <c:v>4526.04560906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3216.4856553300001</c:v>
+                  <c:v>3216.48565533</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2121.88933464</c:v>
@@ -1883,11 +1898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68898176"/>
-        <c:axId val="68912256"/>
+        <c:axId val="1594001664"/>
+        <c:axId val="1594003440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68898176"/>
+        <c:axId val="1594001664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,12 +1912,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68912256"/>
+        <c:crossAx val="1594003440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68912256"/>
+        <c:axId val="1594003440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68898176"/>
+        <c:crossAx val="1594001664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1933,7 +1948,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1974,31 +1989,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,19 +2025,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>80.584405039999993</c:v>
+                  <c:v>80.58440503999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.64824380000002</c:v>
+                  <c:v>100.6482438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.951791200000002</c:v>
+                  <c:v>76.9517912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.213717680000002</c:v>
+                  <c:v>40.21371768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.4244628499999994</c:v>
+                  <c:v>-5.424462849999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12.83611951</c:v>
@@ -2034,7 +2049,7 @@
                   <c:v>11.81980667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.766570289999997</c:v>
+                  <c:v>37.76657029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,11 +2064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68030464"/>
-        <c:axId val="68032000"/>
+        <c:axId val="1565487936"/>
+        <c:axId val="1568235776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68030464"/>
+        <c:axId val="1565487936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,12 +2078,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68032000"/>
+        <c:crossAx val="1568235776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68032000"/>
+        <c:axId val="1568235776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68030464"/>
+        <c:crossAx val="1565487936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2099,7 +2114,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2149,28 +2164,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,28 +2197,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>170.73622679000005</c:v>
+                  <c:v>170.73622679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-44.931074140000192</c:v>
+                  <c:v>-44.9310741400002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-25.540484260000085</c:v>
+                  <c:v>-25.54048426000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-32.964472159999787</c:v>
+                  <c:v>-32.96447215999979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.963382819999879</c:v>
+                  <c:v>48.96338281999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-19.3106765</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-47.530407559999958</c:v>
+                  <c:v>-47.53040755999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.646983340000133</c:v>
+                  <c:v>-10.64698334000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,11 +2233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68057728"/>
-        <c:axId val="68067712"/>
+        <c:axId val="1596761680"/>
+        <c:axId val="1568171072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68057728"/>
+        <c:axId val="1596761680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,12 +2247,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68067712"/>
+        <c:crossAx val="1568171072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68067712"/>
+        <c:axId val="1568171072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68057728"/>
+        <c:crossAx val="1596761680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2273,7 +2288,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2314,28 +2329,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2347,28 +2362,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4059.9565134200011</c:v>
+                  <c:v>4059.956513420001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192.77222687999995</c:v>
+                  <c:v>192.77222688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1135.7049835600003</c:v>
+                  <c:v>-1135.70498356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>252.89366596000002</c:v>
+                  <c:v>252.89366596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2571.0791225799999</c:v>
+                  <c:v>2571.07912258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-48.976519579999945</c:v>
+                  <c:v>-48.97651957999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>658.02807570000027</c:v>
+                  <c:v>658.0280757000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.215520999999967</c:v>
+                  <c:v>46.21552099999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,11 +2398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68078208"/>
-        <c:axId val="68104576"/>
+        <c:axId val="1597282528"/>
+        <c:axId val="1597123840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68078208"/>
+        <c:axId val="1597282528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,12 +2412,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68104576"/>
+        <c:crossAx val="1597123840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68104576"/>
+        <c:axId val="1597123840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68078208"/>
+        <c:crossAx val="1597282528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2438,7 +2453,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2478,28 +2493,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,28 +2526,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24.938546850000002</c:v>
+                  <c:v>24.93854685</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.776820200000003</c:v>
+                  <c:v>39.7768202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.899386120000003</c:v>
+                  <c:v>26.89938612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.433190179999997</c:v>
+                  <c:v>46.43319018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.196823270000003</c:v>
+                  <c:v>62.19682327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.320450840000007</c:v>
+                  <c:v>79.32045084000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.141211350000006</c:v>
+                  <c:v>65.14121135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.681314029999996</c:v>
+                  <c:v>67.68131403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,11 +2562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69055232"/>
-        <c:axId val="69056768"/>
+        <c:axId val="1560757776"/>
+        <c:axId val="1597290896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69055232"/>
+        <c:axId val="1560757776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,12 +2576,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69056768"/>
+        <c:crossAx val="1597290896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69056768"/>
+        <c:axId val="1597290896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,7 +2592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69055232"/>
+        <c:crossAx val="1560757776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2875,7 +2890,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2917,12 +2932,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2952,12 +2967,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3167,40 +3182,40 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="49" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="55" max="67" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="67" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3406,7 +3421,7 @@
         <v>19700101</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3609,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4021,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4227,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4433,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4639,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4845,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5051,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5257,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5463,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5669,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5875,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6081,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -6287,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -6493,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -6699,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -6905,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -7111,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -7317,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -7523,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -7729,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -7935,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -8141,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -8212,7 +8227,7 @@
       <c r="BN27" s="1"/>
       <c r="BO27" s="1"/>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -8418,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -8624,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -8830,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -9036,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -9242,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -9449,6 +9464,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -9462,40 +9478,40 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="49" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="55" max="67" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="67" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9701,7 +9717,7 @@
         <v>19700101</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9904,7 +9920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10110,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10316,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10522,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10728,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10934,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -11140,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -11346,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -11552,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -11758,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -11964,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -12170,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -12376,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -12582,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12788,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -12994,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -13200,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -13406,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -13612,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -13818,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -14024,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -14230,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -14436,7 +14452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -14507,7 +14523,7 @@
       <c r="BN27" s="1"/>
       <c r="BO27" s="1"/>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -14713,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -14919,7 +14935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -15125,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -15331,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -15537,7 +15553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -15744,6 +15760,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15756,30 +15773,30 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -15892,7 +15909,7 @@
         <v>39903</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -16005,7 +16022,7 @@
         <v>437048610.06999999</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -16154,7 +16171,7 @@
         <v>437.04861007</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -16294,7 +16311,7 @@
         <v>437.04861007</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -16407,7 +16424,7 @@
         <v>437048610.06999999</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -16556,7 +16573,7 @@
         <v>437.04861007</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -16669,7 +16686,7 @@
         <v>37540130.659999996</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -16818,7 +16835,7 @@
         <v>37.540130659999996</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -16965,7 +16982,7 @@
         <v>37.540130659999996</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -17078,7 +17095,7 @@
         <v>399723652.25999999</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -17227,7 +17244,7 @@
         <v>399.72365225999999</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -17265,7 +17282,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -17378,7 +17395,7 @@
         <v>37540130.659999996</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -17527,7 +17544,7 @@
         <v>37.540130659999996</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -17676,7 +17693,7 @@
         <v>8.5894634589931254E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -17822,7 +17839,7 @@
       </c>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -17935,7 +17952,7 @@
         <v>49522163.619999997</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -18084,7 +18101,7 @@
         <v>495.22163619999998</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -18197,7 +18214,7 @@
         <v>15623841.939999999</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -18346,7 +18363,7 @@
         <v>15.62384194</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -18459,7 +18476,7 @@
         <v>33898321.68</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -18608,7 +18625,7 @@
         <v>33.898321680000002</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -18757,7 +18774,7 @@
         <v>33.898321680000002</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -18870,7 +18887,7 @@
         <v>40846092.640000001</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
@@ -19019,7 +19036,7 @@
         <v>40.846092640000002</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -19093,7 +19110,7 @@
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -19206,7 +19223,7 @@
         <v>-6947770.96</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -19355,12 +19372,12 @@
         <v>-6.9477709599999997</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -19473,7 +19490,7 @@
         <v>39903</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
@@ -19586,7 +19603,7 @@
         <v>437.04861007</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -19699,12 +19716,12 @@
         <v>37.540130659999996</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>34</v>
       </c>
@@ -19817,7 +19834,7 @@
         <v>39903</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -19931,6 +19948,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
@@ -19941,22 +19959,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="E28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="E28" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -20003,7 +20021,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>85</v>
       </c>
@@ -20059,7 +20077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -20096,7 +20114,7 @@
         <v>40178</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -20133,7 +20151,7 @@
         <v>2121889334.6400001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -20194,7 +20212,7 @@
         <v>2121.88933464</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -20231,7 +20249,7 @@
         <v>2113036944.54</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -20277,7 +20295,7 @@
         <v>2113.0369445400001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -20314,7 +20332,7 @@
         <v>83808110.530000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -20351,7 +20369,7 @@
         <v>77778496.959999993</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -20388,7 +20406,7 @@
         <v>8474715.9399999995</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -20425,7 +20443,7 @@
         <v>14681769.43</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -20471,7 +20489,7 @@
         <v>14.681769429999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
@@ -20503,7 +20521,7 @@
         <v>34.159758279999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -20540,7 +20558,7 @@
         <v>-19.477988850000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -20586,7 +20604,7 @@
         <v>6.9191965812349541E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>88</v>
       </c>
@@ -20620,7 +20638,7 @@
         <v>-10.646983340000133</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>63</v>
       </c>
@@ -20650,7 +20668,7 @@
       </c>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -20692,7 +20710,7 @@
         <v>0.51585928767378864</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -20734,7 +20752,7 @@
         <v>24.476901456115044</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -20776,7 +20794,7 @@
         <v>0.27928099227269731</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -20818,12 +20836,12 @@
         <v>0.25614144239104031</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -20867,7 +20885,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -20876,17 +20894,17 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>65</v>
       </c>
@@ -20895,7 +20913,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>80</v>
       </c>
@@ -20906,7 +20924,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>81</v>
       </c>
@@ -20917,7 +20935,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>77</v>
       </c>
@@ -20931,7 +20949,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>76</v>
       </c>
@@ -20945,7 +20963,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -20959,7 +20977,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -20973,7 +20991,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -20987,7 +21005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -21001,22 +21019,23 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C43" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
@@ -21027,20 +21046,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -21087,7 +21106,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>85</v>
       </c>
@@ -21143,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -21180,7 +21199,7 @@
         <v>40178</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -21212,7 +21231,7 @@
         <v>2121889334.6400001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>53</v>
       </c>
@@ -21273,7 +21292,7 @@
         <v>2121.88933464</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -21305,7 +21324,7 @@
         <v>2113036944.54</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
@@ -21346,7 +21365,7 @@
         <v>2113.0369445400001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -21378,7 +21397,7 @@
         <v>83808110.530000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -21410,7 +21429,7 @@
         <v>77778496.959999993</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -21442,7 +21461,7 @@
         <v>8474715.9399999995</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -21474,7 +21493,7 @@
         <v>14681769.43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
@@ -21508,7 +21527,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
@@ -21555,7 +21574,7 @@
         <v>83.808110530000008</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -21616,7 +21635,7 @@
         <v>14.681769429999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -21668,7 +21687,7 @@
         <v>34.159758279999998</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>90</v>
       </c>
@@ -21720,7 +21739,7 @@
         <v>-19.477988850000003</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>57</v>
       </c>
@@ -21776,7 +21795,7 @@
         <v>6.9191965812349541E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
@@ -21813,7 +21832,7 @@
         <v>0.51585928767378864</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>58</v>
       </c>
@@ -21850,7 +21869,7 @@
         <v>24.476901456115044</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -21902,7 +21921,7 @@
         <v>0.27928099227269731</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>89</v>
       </c>
@@ -21940,7 +21959,7 @@
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -21990,7 +22009,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -22042,7 +22061,7 @@
         <v>-582.0699228200001</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>87</v>
       </c>
@@ -22094,7 +22113,7 @@
         <v>37.766570289999997</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -22119,7 +22138,7 @@
         <v>1293.6057544910343</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -22139,7 +22158,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -22159,7 +22178,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -22184,7 +22203,7 @@
         <v>64680.287724551701</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>98</v>
       </c>
@@ -22204,7 +22223,7 @@
         <v>1719160000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>99</v>
       </c>
@@ -22229,7 +22248,7 @@
         <v>1719.16</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -22255,6 +22274,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
@@ -22267,8 +22287,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22281,13 +22302,13 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -22322,7 +22343,7 @@
         <v>20081231</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -22357,7 +22378,7 @@
         <v>3342698114.1100001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -22392,7 +22413,7 @@
         <v>2032948359.95</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -22427,7 +22448,7 @@
         <v>241661705.12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -22462,7 +22483,7 @@
         <v>36417637.07</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -22497,7 +22518,7 @@
         <v>-725158.67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -22532,7 +22553,7 @@
         <v>810045688.53999996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -22567,7 +22588,7 @@
         <v>189177834.25999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -22602,7 +22623,7 @@
         <v>620867854.27999997</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -22647,7 +22668,7 @@
         <v>37142795.740000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -22693,6 +22714,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -22706,14 +22728,14 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="8" customWidth="1"/>
+    <col min="7" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -22760,7 +22782,7 @@
         <v>20091231</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>91</v>
       </c>
@@ -22807,7 +22829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>92</v>
       </c>
@@ -22860,6 +22882,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
